--- a/training_data/2005/standings.xlsx
+++ b/training_data/2005/standings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex_1/Desktop/MVP-Predictor/training_data/2005/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FF3CC35-9C6B-064B-ACEF-5D5953BEDACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579FDDC7-95FA-D446-AF11-1DC50BA48A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{2DC563EF-C4AA-1143-8A81-F697D4BF2679}"/>
   </bookViews>
@@ -144,10 +144,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,20 +497,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80C68E9-E580-004B-9E76-5E72E6BB82EF}">
-  <dimension ref="A4:C35"/>
+  <dimension ref="A4:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -513,7 +521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -523,8 +531,9 @@
       <c r="C6">
         <v>0.61699999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -534,8 +543,9 @@
       <c r="C7">
         <v>0.61099999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -545,8 +555,9 @@
       <c r="C8">
         <v>0.58599999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -556,8 +567,9 @@
       <c r="C9">
         <v>0.58599999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -567,8 +579,9 @@
       <c r="C10">
         <v>0.58599999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -578,8 +591,9 @@
       <c r="C11">
         <v>0.57399999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -589,8 +603,9 @@
       <c r="C12">
         <v>0.55600000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -600,8 +615,9 @@
       <c r="C13">
         <v>0.54900000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -611,8 +627,9 @@
       <c r="C14">
         <v>0.54300000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -622,8 +639,9 @@
       <c r="C15">
         <v>0.54300000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11</v>
       </c>
@@ -633,8 +651,9 @@
       <c r="C16">
         <v>0.51200000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12</v>
       </c>
@@ -644,8 +663,9 @@
       <c r="C17">
         <v>0.51200000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13</v>
       </c>
@@ -655,8 +675,9 @@
       <c r="C18">
         <v>0.51200000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14</v>
       </c>
@@ -666,8 +687,9 @@
       <c r="C19">
         <v>0.50600000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>15</v>
       </c>
@@ -677,8 +699,9 @@
       <c r="C20">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>16</v>
       </c>
@@ -688,8 +711,9 @@
       <c r="C21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>17</v>
       </c>
@@ -699,8 +723,9 @@
       <c r="C22">
         <v>0.49399999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>18</v>
       </c>
@@ -710,8 +735,9 @@
       <c r="C23">
         <v>0.48799999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>19</v>
       </c>
@@ -721,8 +747,9 @@
       <c r="C24">
         <v>0.48799999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20</v>
       </c>
@@ -732,8 +759,9 @@
       <c r="C25">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>21</v>
       </c>
@@ -743,8 +771,9 @@
       <c r="C26">
         <v>0.46300000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>22</v>
       </c>
@@ -754,8 +783,9 @@
       <c r="C27">
         <v>0.45700000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>23</v>
       </c>
@@ -765,8 +795,9 @@
       <c r="C28">
         <v>0.45100000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>24</v>
       </c>
@@ -776,8 +807,9 @@
       <c r="C29">
         <v>0.438</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>25</v>
       </c>
@@ -787,8 +819,9 @@
       <c r="C30">
         <v>0.438</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>26</v>
       </c>
@@ -798,8 +831,9 @@
       <c r="C31">
         <v>0.42599999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>27</v>
       </c>
@@ -809,8 +843,9 @@
       <c r="C32">
         <v>0.41399999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>28</v>
       </c>
@@ -820,8 +855,9 @@
       <c r="C33">
         <v>0.41399999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>29</v>
       </c>
@@ -831,8 +867,9 @@
       <c r="C34">
         <v>0.41399999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>30</v>
       </c>
@@ -842,6 +879,7 @@
       <c r="C35">
         <v>0.34599999999999997</v>
       </c>
+      <c r="F35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
